--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Priyabrata\Ruby\Industry Connect\MVPTask\Task3\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67284D81-7617-47FE-A7FC-D523C638B247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E711B-4F89-4DFB-AD9A-996941DECD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
-    <sheet name="ChangePassword" sheetId="4" r:id="rId4"/>
+    <sheet name="RegistrationSignIn" sheetId="5" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
+    <sheet name="Profile" sheetId="2" r:id="rId4"/>
+    <sheet name="ChangePassword" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
@@ -94,12 +95,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
     <t>vidhyav9@gmail.com</t>
   </si>
   <si>
@@ -140,6 +135,18 @@
   </si>
   <si>
     <t>NewPassword</t>
+  </si>
+  <si>
+    <t>testpassword</t>
+  </si>
+  <si>
+    <t>TestFirstName24</t>
+  </si>
+  <si>
+    <t>TestLastName24</t>
+  </si>
+  <si>
+    <t>testfirstname24.testlastname24@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -162,7 +169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,12 +211,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -546,7 +560,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,19 +591,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -601,6 +615,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB8064-E088-496D-ABCD-4A3A66097901}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E2BD697A-371A-4EF1-9DC8-9ECEC9311CD9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -627,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,24 +687,24 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -723,10 +775,10 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -735,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -747,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -755,11 +807,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F9C08-55D9-496C-AD80-AE732525D051}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -775,21 +827,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
